--- a/dados/empresa.xlsx
+++ b/dados/empresa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iury\Desktop\IFEmpresas\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F67041-3785-46CA-8B23-F5262924481C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7D5428-3C96-4417-9F53-3DFA8E9264E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14655" yWindow="1065" windowWidth="13110" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="144">
   <si>
     <t>NOME_EMPRESA</t>
   </si>
@@ -223,9 +223,6 @@
   </si>
   <si>
     <t>Prêmio ABRADEE (qualidade e gestão) e reconhecida como GPTW (Melhor Empresa para Trabalhar).</t>
-  </si>
-  <si>
-    <t>Demanda nacional.</t>
   </si>
   <si>
     <t xml:space="preserve">Miba </t>
@@ -586,6 +583,12 @@
   </si>
   <si>
     <t>https://i.imgur.com/IRAwvcn.png</t>
+  </si>
+  <si>
+    <t>Desconhecido</t>
+  </si>
+  <si>
+    <t>Demanda nacional</t>
   </si>
 </sst>
 </file>
@@ -1132,9 +1135,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1240,7 +1243,7 @@
         <v>22</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
@@ -1259,38 +1262,40 @@
     </row>
     <row r="3" spans="1:26" ht="30" customHeight="1">
       <c r="A3" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="D3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="E3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="20" t="s">
-        <v>29</v>
-      </c>
       <c r="G3" s="51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>20</v>
       </c>
       <c r="J3" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L3" s="17" t="s">
         <v>31</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="17" t="s">
-        <v>32</v>
       </c>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
@@ -1309,36 +1314,38 @@
     </row>
     <row r="4" spans="1:26" ht="30" customHeight="1">
       <c r="A4" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="C4" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="D4" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="E4" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="F4" s="23" t="s">
         <v>37</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>38</v>
       </c>
       <c r="G4" s="50"/>
       <c r="H4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="J4" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="K4" t="s">
+        <v>142</v>
+      </c>
+      <c r="L4" s="38" t="s">
         <v>41</v>
-      </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="17" t="s">
-        <v>42</v>
       </c>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
@@ -1357,40 +1364,40 @@
     </row>
     <row r="5" spans="1:26" ht="30" customHeight="1">
       <c r="A5" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="C5" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="D5" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="E5" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="F5" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="23" t="s">
-        <v>48</v>
-      </c>
       <c r="G5" s="50" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>20</v>
       </c>
       <c r="J5" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="K5" s="26" t="s">
-        <v>51</v>
-      </c>
       <c r="L5" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
@@ -1409,40 +1416,40 @@
     </row>
     <row r="6" spans="1:26" ht="53.25" customHeight="1">
       <c r="A6" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="C6" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="D6" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="E6" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="F6" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="G6" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="H6" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="H6" s="13" t="s">
+      <c r="I6" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="J6" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="K6" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="K6" s="25" t="s">
-        <v>61</v>
-      </c>
       <c r="L6" s="17" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -1461,40 +1468,40 @@
     </row>
     <row r="7" spans="1:26" ht="46.5" customHeight="1">
       <c r="A7" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="C7" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="D7" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="E7" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="F7" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="G7" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="50" t="s">
-        <v>137</v>
-      </c>
-      <c r="H7" s="13" t="s">
+      <c r="I7" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="J7" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="K7" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="K7" s="26" t="s">
+      <c r="L7" s="17" t="s">
         <v>71</v>
-      </c>
-      <c r="L7" s="17" t="s">
-        <v>72</v>
       </c>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
@@ -1513,38 +1520,40 @@
     </row>
     <row r="8" spans="1:26" ht="42.75" customHeight="1">
       <c r="A8" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="C8" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="D8" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="E8" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="F8" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="G8" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="G8" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="H8" s="13" t="s">
+      <c r="I8" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="J8" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="J8" s="31" t="s">
-        <v>81</v>
+      <c r="K8" t="s">
+        <v>142</v>
       </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="17" t="s">
-        <v>42</v>
+      <c r="L8" s="38" t="s">
+        <v>41</v>
       </c>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
@@ -1563,38 +1572,40 @@
     </row>
     <row r="9" spans="1:26" ht="36" customHeight="1">
       <c r="A9" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="C9" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="D9" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="E9" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="F9" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="G9" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="H9" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="G9" s="49" t="s">
-        <v>139</v>
+      <c r="I9" s="13" t="s">
+        <v>58</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="J9" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="I9" s="13" t="s">
-        <v>59</v>
+      <c r="K9" t="s">
+        <v>142</v>
       </c>
-      <c r="J9" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K9" s="8"/>
       <c r="L9" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
@@ -1613,38 +1624,40 @@
     </row>
     <row r="10" spans="1:26" ht="65.25" customHeight="1">
       <c r="A10" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="C10" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="D10" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="E10" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="F10" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="G10" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="H10" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="50" t="s">
-        <v>140</v>
+      <c r="I10" s="30" t="s">
+        <v>79</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="J10" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="I10" s="30" t="s">
-        <v>80</v>
+      <c r="K10" t="s">
+        <v>142</v>
       </c>
-      <c r="J10" s="34" t="s">
+      <c r="L10" s="17" t="s">
         <v>97</v>
-      </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="17" t="s">
-        <v>98</v>
       </c>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
@@ -1663,36 +1676,38 @@
     </row>
     <row r="11" spans="1:26" ht="60">
       <c r="A11" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="C11" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="D11" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="E11" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="F11" s="23" t="s">
         <v>103</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>104</v>
       </c>
       <c r="G11" s="50"/>
       <c r="H11" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>20</v>
       </c>
       <c r="J11" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="17" t="s">
-        <v>42</v>
+      <c r="K11" t="s">
+        <v>142</v>
+      </c>
+      <c r="L11" s="38" t="s">
+        <v>41</v>
       </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
@@ -1711,38 +1726,40 @@
     </row>
     <row r="12" spans="1:26" ht="42" customHeight="1">
       <c r="A12" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="C12" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="D12" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="E12" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="F12" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="F12" s="36" t="s">
+      <c r="G12" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="H12" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="G12" s="50" t="s">
+      <c r="I12" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" t="s">
         <v>142</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="I12" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="J12" s="26" t="s">
+      <c r="L12" s="17" t="s">
         <v>114</v>
-      </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="17" t="s">
-        <v>115</v>
       </c>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
@@ -1761,38 +1778,38 @@
     </row>
     <row r="13" spans="1:26" ht="48.75" customHeight="1">
       <c r="A13" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="C13" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="D13" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="E13" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="F13" s="21" t="s">
         <v>120</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>121</v>
       </c>
       <c r="G13" s="50"/>
       <c r="H13" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="I13" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J13" s="37" t="s">
+      <c r="K13" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="K13" s="25" t="s">
+      <c r="L13" s="17" t="s">
         <v>124</v>
-      </c>
-      <c r="L13" s="17" t="s">
-        <v>125</v>
       </c>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
@@ -1811,38 +1828,40 @@
     </row>
     <row r="14" spans="1:26" ht="41.25" customHeight="1">
       <c r="A14" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="C14" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="D14" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="E14" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="F14" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="F14" s="37" t="s">
+      <c r="G14" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="H14" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="49" t="s">
-        <v>141</v>
+      <c r="I14" s="30" t="s">
+        <v>79</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="J14" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="I14" s="30" t="s">
-        <v>80</v>
+      <c r="K14" t="s">
+        <v>142</v>
       </c>
-      <c r="J14" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="K14" s="8"/>
-      <c r="L14" s="17" t="s">
-        <v>42</v>
+      <c r="L14" s="38" t="s">
+        <v>41</v>
       </c>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
